--- a/backend/CrawlMaster/Output.xlsx
+++ b/backend/CrawlMaster/Output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>timeSeq</t>
   </si>
@@ -37,19 +37,496 @@
     <t>EmotionQuota</t>
   </si>
   <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
+    <t>2021-06-17</t>
+  </si>
+  <si>
+    <t>2021-06-16</t>
+  </si>
+  <si>
+    <t>2023-10-08</t>
+  </si>
+  <si>
+    <t>2023-10-09</t>
+  </si>
+  <si>
+    <t>2021-06-18</t>
+  </si>
+  <si>
+    <t>2021-06-25</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>2023-10-12</t>
+  </si>
+  <si>
+    <t>2023-10-14</t>
+  </si>
+  <si>
+    <t>2023-10-04</t>
+  </si>
+  <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
+    <t>2023-10-18</t>
+  </si>
+  <si>
+    <t>2023-10-15</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
+    <t>2023-10-19</t>
+  </si>
+  <si>
+    <t>2023-10-22</t>
+  </si>
+  <si>
+    <t>2023-10-21</t>
+  </si>
+  <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>2023-10-17</t>
+  </si>
+  <si>
+    <t>2021-05-21</t>
+  </si>
+  <si>
+    <t>2021-05-23</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>2021-06-07</t>
+  </si>
+  <si>
+    <t>2021-05-20</t>
+  </si>
+  <si>
+    <t>2021-05-19</t>
+  </si>
+  <si>
+    <t>2023-09-16</t>
+  </si>
+  <si>
+    <t>2021-12-10</t>
+  </si>
+  <si>
+    <t>2022-05-05</t>
+  </si>
+  <si>
+    <t>2022-01-17</t>
+  </si>
+  <si>
+    <t>2022-03-22</t>
+  </si>
+  <si>
+    <t>2022-11-25</t>
+  </si>
+  <si>
+    <t>2022-06-21</t>
+  </si>
+  <si>
+    <t>2022-03-05</t>
+  </si>
+  <si>
+    <t>2021-05-18</t>
+  </si>
+  <si>
+    <t>2021-06-21</t>
+  </si>
+  <si>
+    <t>2021-08-03</t>
+  </si>
+  <si>
+    <t>2021-07-07</t>
+  </si>
+  <si>
+    <t>2022-05-07</t>
+  </si>
+  <si>
+    <t>2021-06-27</t>
+  </si>
+  <si>
+    <t>2021-05-26</t>
+  </si>
+  <si>
+    <t>2023-09-26</t>
+  </si>
+  <si>
+    <t>2021-07-05</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>2021-07-08</t>
+  </si>
+  <si>
+    <t>2023-10-07</t>
+  </si>
+  <si>
+    <t>2021-06-22</t>
+  </si>
+  <si>
+    <t>2021-06-28</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>2023-06-12</t>
+  </si>
+  <si>
+    <t>2021-05-24</t>
+  </si>
+  <si>
+    <t>2021-05-25</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>2022-08-09</t>
+  </si>
+  <si>
+    <t>2022-03-18</t>
+  </si>
+  <si>
+    <t>2023-02-18</t>
+  </si>
+  <si>
+    <t>2021-09-19</t>
+  </si>
+  <si>
+    <t>2022-06-18</t>
+  </si>
+  <si>
+    <t>2022-06-12</t>
+  </si>
+  <si>
+    <t>2021-06-23</t>
+  </si>
+  <si>
+    <t>2021-09-15</t>
+  </si>
+  <si>
+    <t>2021-06-08</t>
+  </si>
+  <si>
+    <t>2021-05-30</t>
+  </si>
+  <si>
+    <t>2023-02-01</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>2021-06-26</t>
+  </si>
+  <si>
+    <t>2018-01-11</t>
+  </si>
+  <si>
+    <t>2023-07-09</t>
+  </si>
+  <si>
+    <t>2023-07-10</t>
+  </si>
+  <si>
+    <t>2018-01-10</t>
+  </si>
+  <si>
+    <t>2023-01-06</t>
+  </si>
+  <si>
+    <t>2023-07-04</t>
+  </si>
+  <si>
+    <t>2020-11-15</t>
+  </si>
+  <si>
+    <t>2023-10-29</t>
+  </si>
+  <si>
+    <t>2023-10-28</t>
+  </si>
+  <si>
+    <t>2020-11-13</t>
+  </si>
+  <si>
+    <t>2020-11-11</t>
+  </si>
+  <si>
+    <t>2019-07-06</t>
+  </si>
+  <si>
+    <t>2021-05-15</t>
+  </si>
+  <si>
+    <t>2020-04-10</t>
+  </si>
+  <si>
+    <t>2023-11-30</t>
+  </si>
+  <si>
+    <t>2021-05-12</t>
+  </si>
+  <si>
+    <t>2021-05-14</t>
+  </si>
+  <si>
+    <t>2021-05-13</t>
+  </si>
+  <si>
+    <t>2021-07-26</t>
+  </si>
+  <si>
+    <t>2021-05-17</t>
+  </si>
+  <si>
+    <t>2021-05-16</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>2023-03-14</t>
+  </si>
+  <si>
+    <t>2023-06-28</t>
+  </si>
+  <si>
+    <t>2023-11-12</t>
+  </si>
+  <si>
+    <t>2023-11-24</t>
+  </si>
+  <si>
+    <t>2022-01-12</t>
+  </si>
+  <si>
+    <t>2023-11-23</t>
+  </si>
+  <si>
+    <t>2023-11-04</t>
+  </si>
+  <si>
+    <t>2022-02-02</t>
+  </si>
+  <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>2023-11-18</t>
+  </si>
+  <si>
+    <t>2022-09-07</t>
+  </si>
+  <si>
+    <t>2023-11-19</t>
+  </si>
+  <si>
+    <t>2023-10-30</t>
+  </si>
+  <si>
+    <t>2023-10-25</t>
+  </si>
+  <si>
+    <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-02-12</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-06-20</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>2023-06-27</t>
+  </si>
+  <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
+    <t>2023-11-25</t>
+  </si>
+  <si>
+    <t>2023-11-05</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>2021-09-04</t>
+  </si>
+  <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
+    <t>2023-11-11</t>
+  </si>
+  <si>
+    <t>2021-06-15</t>
+  </si>
+  <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
+    <t>2023-12-10</t>
+  </si>
+  <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>2023-11-28</t>
+  </si>
+  <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>2021-06-01</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2021-06-13</t>
+  </si>
+  <si>
+    <t>2023-11-22</t>
+  </si>
+  <si>
+    <t>2023-11-17</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
+    <t>2023-11-02</t>
+  </si>
+  <si>
+    <t>2022-08-19</t>
+  </si>
+  <si>
+    <t>2021-06-10</t>
+  </si>
+  <si>
+    <t>2021-06-06</t>
+  </si>
+  <si>
+    <t>2021-07-30</t>
+  </si>
+  <si>
+    <t>2023-11-14</t>
+  </si>
+  <si>
+    <t>2023-12-02</t>
+  </si>
+  <si>
+    <t>2023-11-07</t>
+  </si>
+  <si>
+    <t>2021-06-05</t>
+  </si>
+  <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
+    <t>2023-11-29</t>
+  </si>
+  <si>
+    <t>2023-06-17</t>
+  </si>
+  <si>
+    <t>2023-04-21</t>
+  </si>
+  <si>
+    <t>2023-04-26</t>
+  </si>
+  <si>
+    <t>2023-04-19</t>
+  </si>
+  <si>
+    <t>2023-05-08</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-12-08</t>
+  </si>
+  <si>
+    <t>2023-12-06</t>
+  </si>
+  <si>
+    <t>2019-07-02</t>
+  </si>
+  <si>
+    <t>2021-08-28</t>
+  </si>
+  <si>
+    <t>2021-07-10</t>
+  </si>
+  <si>
+    <t>2021-08-21</t>
+  </si>
+  <si>
+    <t>2022-10-05</t>
+  </si>
+  <si>
+    <t>2021-10-09</t>
+  </si>
+  <si>
+    <t>2023-11-26</t>
+  </si>
+  <si>
+    <t>2023-11-27</t>
+  </si>
+  <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
     <t>2023-12-03</t>
-  </si>
-  <si>
-    <t>2023-11-29</t>
-  </si>
-  <si>
-    <t>2023-12-01</t>
-  </si>
-  <si>
-    <t>2023-11-30</t>
-  </si>
-  <si>
-    <t>2023-12-02</t>
   </si>
   <si>
     <t>2023-12-04</t>
@@ -413,7 +890,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0727802037845706</v>
+        <v>0.2332651670074983</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="G2">
-        <v>0.1811023622047244</v>
+        <v>0.5605182407091714</v>
       </c>
       <c r="H2">
-        <v>0.7097275293704873</v>
+        <v>0.7710049576501077</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -476,22 +953,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="E3">
-        <v>0.7235716110090287</v>
+        <v>0.1977505112474438</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="G3">
-        <v>0.2952755905511811</v>
+        <v>0.3266280259120354</v>
       </c>
       <c r="H3">
-        <v>0.8517716304469382</v>
+        <v>0.7636732941598553</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -502,22 +979,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.005623721881390593</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="G4">
-        <v>0.6220472440944882</v>
+        <v>0.01841118308898738</v>
       </c>
       <c r="H4">
-        <v>0.2131242725895383</v>
+        <v>0.3227455972250962</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -528,22 +1005,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.125</v>
+        <v>0.75</v>
       </c>
       <c r="E5">
-        <v>0.7346287465686676</v>
+        <v>0.02358554873892297</v>
       </c>
       <c r="F5">
-        <v>0.1666666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.02488919195363109</v>
       </c>
       <c r="H5">
-        <v>0.8743625171428486</v>
+        <v>0.5988984613472479</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -554,22 +1031,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.3333333333333333</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="E6">
-        <v>0.181771968586725</v>
+        <v>0.2920927062031357</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="G6">
-        <v>0.3503937007874016</v>
+        <v>0.3675417661097852</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.7371240326652664</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -583,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="E7">
-        <v>0.08151382823871907</v>
+        <v>0.07668711656441718</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="G7">
-        <v>0.04724409448818898</v>
+        <v>0.4930105693828844</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.7201092242874059</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -609,19 +1086,4153 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.0002385821404226312</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.002045687009887488</v>
       </c>
       <c r="H8">
-        <v>0.5435736905878435</v>
+        <v>0.4890382706943961</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.25</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.125</v>
+      </c>
+      <c r="G9">
+        <v>0.0006818956699624957</v>
+      </c>
+      <c r="H9">
+        <v>0.2824338444315822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.875</v>
+      </c>
+      <c r="E10">
+        <v>0.2173142467620995</v>
+      </c>
+      <c r="F10">
+        <v>0.875</v>
+      </c>
+      <c r="G10">
+        <v>0.6017729287419025</v>
+      </c>
+      <c r="H10">
+        <v>0.7624336870243593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.4695296523517383</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.3494715308557791</v>
+      </c>
+      <c r="H11">
+        <v>0.7618277318212776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.125</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.125</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.3366799499045628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="D13">
+        <v>0.75</v>
+      </c>
+      <c r="E13">
+        <v>0.2920245398773006</v>
+      </c>
+      <c r="F13">
+        <v>0.625</v>
+      </c>
+      <c r="G13">
+        <v>0.6004091374019774</v>
+      </c>
+      <c r="H13">
+        <v>0.7257906048706115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.625</v>
+      </c>
+      <c r="E14">
+        <v>0.7460122699386503</v>
+      </c>
+      <c r="F14">
+        <v>0.75</v>
+      </c>
+      <c r="G14">
+        <v>0.6215479031708148</v>
+      </c>
+      <c r="H14">
+        <v>0.7409088657803424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.001022843504943744</v>
+      </c>
+      <c r="H15">
+        <v>0.9165278424274346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="D16">
+        <v>0.375</v>
+      </c>
+      <c r="E16">
+        <v>0.2743012951601909</v>
+      </c>
+      <c r="F16">
+        <v>0.125</v>
+      </c>
+      <c r="G16">
+        <v>0.3426525741561541</v>
+      </c>
+      <c r="H16">
+        <v>0.7128760221917041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.625</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.735975328790036</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.25</v>
+      </c>
+      <c r="E18">
+        <v>0.323653715064758</v>
+      </c>
+      <c r="F18">
+        <v>0.25</v>
+      </c>
+      <c r="G18">
+        <v>0.4197067848619161</v>
+      </c>
+      <c r="H18">
+        <v>0.7211696738405813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0.3759372869802318</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0.3941356972383225</v>
+      </c>
+      <c r="H19">
+        <v>0.6862847606381938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.875</v>
+      </c>
+      <c r="E20">
+        <v>0.7143149284253579</v>
+      </c>
+      <c r="F20">
+        <v>0.875</v>
+      </c>
+      <c r="G20">
+        <v>0.7037163314012955</v>
+      </c>
+      <c r="H20">
+        <v>0.6939414636476355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0.372869802317655</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.3726559836345039</v>
+      </c>
+      <c r="H21">
+        <v>0.7553286416380209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="D22">
+        <v>0.375</v>
+      </c>
+      <c r="E22">
+        <v>0.8450579413769598</v>
+      </c>
+      <c r="F22">
+        <v>0.25</v>
+      </c>
+      <c r="G22">
+        <v>0.6065461984316399</v>
+      </c>
+      <c r="H22">
+        <v>0.8131649785958364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0.75</v>
+      </c>
+      <c r="E23">
+        <v>0.1445126107702795</v>
+      </c>
+      <c r="F23">
+        <v>0.75</v>
+      </c>
+      <c r="G23">
+        <v>0.6426866689396522</v>
+      </c>
+      <c r="H23">
+        <v>0.6658586748964802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0.5074982958418541</v>
+      </c>
+      <c r="F24">
+        <v>0.125</v>
+      </c>
+      <c r="G24">
+        <v>0.6048414592567336</v>
+      </c>
+      <c r="H24">
+        <v>0.7198349482827323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>0.2857142857142858</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <v>0.04226312201772325</v>
+      </c>
+      <c r="F25">
+        <v>0.375</v>
+      </c>
+      <c r="G25">
+        <v>0.08285032390044324</v>
+      </c>
+      <c r="H25">
+        <v>0.742871146456345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0.875</v>
+      </c>
+      <c r="E26">
+        <v>0.006271301976823449</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.008523695874531195</v>
+      </c>
+      <c r="H26">
+        <v>0.6466654662519631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0.03674164962508521</v>
+      </c>
+      <c r="F27">
+        <v>0.875</v>
+      </c>
+      <c r="G27">
+        <v>0.02795772246846232</v>
+      </c>
+      <c r="H27">
+        <v>0.5645593927518564</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H28">
+        <v>0.4981744801859995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D29">
+        <v>0.125</v>
+      </c>
+      <c r="E29">
+        <v>0.01165644171779141</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0.02386634844868735</v>
+      </c>
+      <c r="H29">
+        <v>0.7215392701755245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0.125</v>
+      </c>
+      <c r="E30">
+        <v>0.05896387184730743</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0.05864302761677463</v>
+      </c>
+      <c r="H30">
+        <v>0.7081863932963541</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0.125</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0.25</v>
+      </c>
+      <c r="G31">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H31">
+        <v>0.4983030548148931</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0.875</v>
+      </c>
+      <c r="G32">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H32">
+        <v>0.4996410934376735</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D33">
+        <v>0.25</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0.375</v>
+      </c>
+      <c r="G33">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H33">
+        <v>0.4888045388749612</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0.75</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H34">
+        <v>0.3738666041530492</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0.25</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0.2900854078554311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0.375</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0.375</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0.4996106067496474</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0.375</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0.4895125492632375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0.3888676678403047</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="D39">
+        <v>0.375</v>
+      </c>
+      <c r="E39">
+        <v>0.03469665985003408</v>
+      </c>
+      <c r="F39">
+        <v>0.375</v>
+      </c>
+      <c r="G39">
+        <v>0.05659734060688715</v>
+      </c>
+      <c r="H39">
+        <v>0.7430233580598367</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0.125</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0.125</v>
+      </c>
+      <c r="G40">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H40">
+        <v>0.4980830288361171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0.0705518808483607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0.5</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0.5</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0.4997242572680461</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0.4997064116090034</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.4612597847865607</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0.001704739174906239</v>
+      </c>
+      <c r="H45">
+        <v>0.6632477989104737</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0.25</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0.375</v>
+      </c>
+      <c r="G46">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H46">
+        <v>0.4998583946081844</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0.75</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0.875</v>
+      </c>
+      <c r="G47">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H47">
+        <v>0.4974297375726064</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0.0006818956699624957</v>
+      </c>
+      <c r="H48">
+        <v>0.2764254455906714</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0.0006818956699624957</v>
+      </c>
+      <c r="H49">
+        <v>0.6926962132105626</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0.03680981595092025</v>
+      </c>
+      <c r="F50">
+        <v>0.875</v>
+      </c>
+      <c r="G50">
+        <v>0.03682236617797477</v>
+      </c>
+      <c r="H50">
+        <v>0.8649307649693949</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0.75</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0.625</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0.5</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0.5</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0.4999999928391258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0.875</v>
+      </c>
+      <c r="G53">
+        <v>0.001022843504943744</v>
+      </c>
+      <c r="H53">
+        <v>0.4129131797401144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H54">
+        <v>0.4695924486889622</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D55">
+        <v>0.5</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0.75</v>
+      </c>
+      <c r="G55">
+        <v>0.001022843504943744</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0.001022843504943744</v>
+      </c>
+      <c r="H56">
+        <v>0.4919468554647896</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0.625</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0.5</v>
+      </c>
+      <c r="G57">
+        <v>0.001022843504943744</v>
+      </c>
+      <c r="H57">
+        <v>0.9155448033852853</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0.125</v>
+      </c>
+      <c r="G58">
+        <v>0.002386634844868735</v>
+      </c>
+      <c r="H58">
+        <v>0.8175724503183972</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0.875</v>
+      </c>
+      <c r="G59">
+        <v>0.0006818956699624957</v>
+      </c>
+      <c r="H59">
+        <v>0.4367060449681092</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0.125</v>
+      </c>
+      <c r="G60">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H60">
+        <v>0.4531824440693736</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0.25</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0.125</v>
+      </c>
+      <c r="G61">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H61">
+        <v>0.04564578422449173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0.375</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0.375</v>
+      </c>
+      <c r="G62">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H62">
+        <v>0.4370875310824422</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0.875</v>
+      </c>
+      <c r="G63">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H63">
+        <v>0.2945726225156119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0.25</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0.5</v>
+      </c>
+      <c r="G64">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H64">
+        <v>0.4809326785386829</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0.125</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0.25</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0.08568443366362111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D66">
+        <v>0.875</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0.4993628701712279</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D67">
+        <v>0.125</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0.125</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0.4548133065258501</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0.125</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0.125</v>
+      </c>
+      <c r="G68">
+        <v>0.001022843504943744</v>
+      </c>
+      <c r="H68">
+        <v>0.4084380000355904</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="D69">
+        <v>0.625</v>
+      </c>
+      <c r="E69">
+        <v>0.0003408316291751875</v>
+      </c>
+      <c r="F69">
+        <v>0.75</v>
+      </c>
+      <c r="G69">
+        <v>0.002045687009887488</v>
+      </c>
+      <c r="H69">
+        <v>0.7385274377147397</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H70">
+        <v>0.4904792490591039</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0.875</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0.625</v>
+      </c>
+      <c r="G71">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H71">
+        <v>0.419135072560776</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0.5</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0.5</v>
+      </c>
+      <c r="G72">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H72">
+        <v>0.3415754379877977</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0.3528271327743313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0.125</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0.125</v>
+      </c>
+      <c r="G74">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H74">
+        <v>0.4832999104132449</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="D75">
+        <v>0.5</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0.25</v>
+      </c>
+      <c r="G75">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H75">
+        <v>0.4999142556486087</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0.75</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0.75</v>
+      </c>
+      <c r="G76">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H76">
+        <v>0.4876015675208506</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H77">
+        <v>0.485336367338422</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H78">
+        <v>0.4999999883783367</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0.875</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0.875</v>
+      </c>
+      <c r="G79">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H79">
+        <v>0.4917932877476904</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0.875</v>
+      </c>
+      <c r="G80">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H80">
+        <v>0.4999468369576949</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0.0008861622358554874</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0.004091374019774974</v>
+      </c>
+      <c r="H81">
+        <v>0.2768226825036723</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82">
+        <v>0.4285714285714287</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0.001942740286298568</v>
+      </c>
+      <c r="F82">
+        <v>0.125</v>
+      </c>
+      <c r="G82">
+        <v>0.006137061029662462</v>
+      </c>
+      <c r="H82">
+        <v>0.474844857787915</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83">
+        <v>0.2857142857142858</v>
+      </c>
+      <c r="D83">
+        <v>0.25</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0.125</v>
+      </c>
+      <c r="G83">
+        <v>0.0006818956699624957</v>
+      </c>
+      <c r="H83">
+        <v>0.4999999996436644</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0.25</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0.25</v>
+      </c>
+      <c r="G84">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H84">
+        <v>0.4987818318777573</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0.375</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0.375</v>
+      </c>
+      <c r="G85">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H85">
+        <v>0.3326944937484766</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0.5</v>
+      </c>
+      <c r="E86">
+        <v>0.004942058623040218</v>
+      </c>
+      <c r="F86">
+        <v>0.5</v>
+      </c>
+      <c r="G86">
+        <v>0.009546539379474939</v>
+      </c>
+      <c r="H86">
+        <v>0.2619332057671043</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0.875</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0.75</v>
+      </c>
+      <c r="G87">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H87">
+        <v>0.4801800698174958</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="D88">
+        <v>0.25</v>
+      </c>
+      <c r="E88">
+        <v>0.3954184191961136</v>
+      </c>
+      <c r="F88">
+        <v>0.125</v>
+      </c>
+      <c r="G88">
+        <v>0.009546539379474939</v>
+      </c>
+      <c r="H88">
+        <v>0.8652455916835738</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0.25</v>
+      </c>
+      <c r="E89">
+        <v>0.0008861622358554874</v>
+      </c>
+      <c r="F89">
+        <v>0.375</v>
+      </c>
+      <c r="G89">
+        <v>0.004091374019774974</v>
+      </c>
+      <c r="H89">
+        <v>0.4191433421388684</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0.006032719836400818</v>
+      </c>
+      <c r="F90">
+        <v>0.125</v>
+      </c>
+      <c r="G90">
+        <v>0.01977497442891238</v>
+      </c>
+      <c r="H90">
+        <v>0.4193410777408833</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0.0147239263803681</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0.0242072962836686</v>
+      </c>
+      <c r="H91">
+        <v>0.3697417416011625</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0.5</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0.375</v>
+      </c>
+      <c r="G92">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H92">
+        <v>0.499999909190636</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0.875</v>
+      </c>
+      <c r="E93">
+        <v>0.0016359918200409</v>
+      </c>
+      <c r="F93">
+        <v>0.75</v>
+      </c>
+      <c r="G93">
+        <v>0.01602454824411865</v>
+      </c>
+      <c r="H93">
+        <v>0.4183349365736686</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>0.004771642808452624</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>0.009205591544493692</v>
+      </c>
+      <c r="H94">
+        <v>0.3882270878045144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>100</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0.875</v>
+      </c>
+      <c r="E95">
+        <v>0.004942058623040218</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>0.009546539379474939</v>
+      </c>
+      <c r="H95">
+        <v>0.4276927962683199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0.75</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H96">
+        <v>0.3643948425011646</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0.5</v>
+      </c>
+      <c r="E98">
+        <v>0.0006816632583503749</v>
+      </c>
+      <c r="F98">
+        <v>0.5</v>
+      </c>
+      <c r="G98">
+        <v>0.00306853051483123</v>
+      </c>
+      <c r="H98">
+        <v>0.4946318520624214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>104</v>
+      </c>
+      <c r="C99">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="D99">
+        <v>0.25</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0.25</v>
+      </c>
+      <c r="G99">
+        <v>0.002045687009887488</v>
+      </c>
+      <c r="H99">
+        <v>0.9345788755941766</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0.25</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0.375</v>
+      </c>
+      <c r="G100">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H100">
+        <v>0.2942964760464685</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0.0006818956699624957</v>
+      </c>
+      <c r="H101">
+        <v>0.49979781210172</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0.0008179959100204499</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0.003750426184793727</v>
+      </c>
+      <c r="H102">
+        <v>0.4216790880893309</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0.25</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0.25</v>
+      </c>
+      <c r="G103">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H103">
+        <v>0.25338963515955</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0.625</v>
+      </c>
+      <c r="E104">
+        <v>0.0002044989775051125</v>
+      </c>
+      <c r="F104">
+        <v>0.375</v>
+      </c>
+      <c r="G104">
+        <v>0.001704739174906239</v>
+      </c>
+      <c r="H104">
+        <v>0.3905971664196438</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0.875</v>
+      </c>
+      <c r="E105">
+        <v>0.00299931833674165</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>0.007159904534606206</v>
+      </c>
+      <c r="H105">
+        <v>0.3835187878747583</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0.375</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0.375</v>
+      </c>
+      <c r="G106">
+        <v>0.0006818956699624957</v>
+      </c>
+      <c r="H106">
+        <v>0.3435728599972035</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0.75</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0.625</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0.4934902202172233</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>113</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0.75</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0.875</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0.07635737643243279</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>114</v>
+      </c>
+      <c r="C109">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="D109">
+        <v>0.25</v>
+      </c>
+      <c r="E109">
+        <v>0.0016359918200409</v>
+      </c>
+      <c r="F109">
+        <v>0.25</v>
+      </c>
+      <c r="G109">
+        <v>0.005114217524718718</v>
+      </c>
+      <c r="H109">
+        <v>0.4270968520788182</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0.875</v>
+      </c>
+      <c r="E110">
+        <v>0.0027266530334015</v>
+      </c>
+      <c r="F110">
+        <v>0.875</v>
+      </c>
+      <c r="G110">
+        <v>0.006478008864643709</v>
+      </c>
+      <c r="H110">
+        <v>0.3731541337171098</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>116</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0.125</v>
+      </c>
+      <c r="E111">
+        <v>0.00299931833674165</v>
+      </c>
+      <c r="F111">
+        <v>0.25</v>
+      </c>
+      <c r="G111">
+        <v>0.007159904534606206</v>
+      </c>
+      <c r="H111">
+        <v>0.4423458941722505</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>117</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0.125</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0.125</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>118</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H113">
+        <v>0.2637507836156086</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>119</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H114">
+        <v>0.4999532490904371</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>120</v>
+      </c>
+      <c r="C115">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0.001022843504943744</v>
+      </c>
+      <c r="H115">
+        <v>0.4999517841365594</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="D116">
+        <v>0.25</v>
+      </c>
+      <c r="E116">
+        <v>0.0001704158145875937</v>
+      </c>
+      <c r="F116">
+        <v>0.125</v>
+      </c>
+      <c r="G116">
+        <v>0.001363791339924991</v>
+      </c>
+      <c r="H116">
+        <v>0.4665960244667163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0.625</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0.75</v>
+      </c>
+      <c r="G117">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H117">
+        <v>0.4999966532058449</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0.0002726653033401499</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0.002386634844868735</v>
+      </c>
+      <c r="H118">
+        <v>0.3358933993224075</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>124</v>
+      </c>
+      <c r="C119">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="D119">
+        <v>0.625</v>
+      </c>
+      <c r="E119">
+        <v>0.03885614523892446</v>
+      </c>
+      <c r="F119">
+        <v>0.75</v>
+      </c>
+      <c r="G119">
+        <v>0.006818956699624957</v>
+      </c>
+      <c r="H119">
+        <v>0.8261713767281276</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>125</v>
+      </c>
+      <c r="C120">
+        <v>0.4285714285714287</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0.0008179959100204499</v>
+      </c>
+      <c r="F120">
+        <v>0.125</v>
+      </c>
+      <c r="G120">
+        <v>0.003750426184793727</v>
+      </c>
+      <c r="H120">
+        <v>0.446839446472557</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0.625</v>
+      </c>
+      <c r="E121">
+        <v>0.004601226993865031</v>
+      </c>
+      <c r="F121">
+        <v>0.625</v>
+      </c>
+      <c r="G121">
+        <v>0.008864643709512444</v>
+      </c>
+      <c r="H121">
+        <v>0.437280728952344</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>127</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0.125</v>
+      </c>
+      <c r="G122">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H122">
+        <v>0.4035160258064303</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>128</v>
+      </c>
+      <c r="C123">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="D123">
+        <v>0.5</v>
+      </c>
+      <c r="E123">
+        <v>0.0027266530334015</v>
+      </c>
+      <c r="F123">
+        <v>0.75</v>
+      </c>
+      <c r="G123">
+        <v>0.006478008864643709</v>
+      </c>
+      <c r="H123">
+        <v>0.4665845692496673</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>129</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0.125</v>
+      </c>
+      <c r="E124">
+        <v>0.0002726653033401499</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0.002386634844868735</v>
+      </c>
+      <c r="H124">
+        <v>0.4567126525536466</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>130</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0.5</v>
+      </c>
+      <c r="E125">
+        <v>0.0001704158145875937</v>
+      </c>
+      <c r="F125">
+        <v>0.375</v>
+      </c>
+      <c r="G125">
+        <v>0.001363791339924991</v>
+      </c>
+      <c r="H125">
+        <v>0.4999866025013887</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>131</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0.75</v>
+      </c>
+      <c r="E126">
+        <v>0.000954328561690525</v>
+      </c>
+      <c r="F126">
+        <v>0.875</v>
+      </c>
+      <c r="G126">
+        <v>0.004432321854756223</v>
+      </c>
+      <c r="H126">
+        <v>0.4620543888074802</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>132</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0.5</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0.5</v>
+      </c>
+      <c r="G127">
+        <v>0.0006818956699624957</v>
+      </c>
+      <c r="H127">
+        <v>0.197879195182368</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>133</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0.25</v>
+      </c>
+      <c r="E128">
+        <v>0.0008179959100204499</v>
+      </c>
+      <c r="F128">
+        <v>0.375</v>
+      </c>
+      <c r="G128">
+        <v>0.003750426184793727</v>
+      </c>
+      <c r="H128">
+        <v>0.3541745025009818</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>134</v>
+      </c>
+      <c r="C129">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="D129">
+        <v>0.125</v>
+      </c>
+      <c r="E129">
+        <v>0.01523770401526449</v>
+      </c>
+      <c r="F129">
+        <v>0.125</v>
+      </c>
+      <c r="G129">
+        <v>0.004091374019774974</v>
+      </c>
+      <c r="H129">
+        <v>0.9964634101190739</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>135</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0.75</v>
+      </c>
+      <c r="E130">
+        <v>0.001533742331288344</v>
+      </c>
+      <c r="F130">
+        <v>0.875</v>
+      </c>
+      <c r="G130">
+        <v>0.00477326968973747</v>
+      </c>
+      <c r="H130">
+        <v>0.3306421660643009</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>136</v>
+      </c>
+      <c r="C131">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0.0006818956699624957</v>
+      </c>
+      <c r="H131">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>137</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0.625</v>
+      </c>
+      <c r="E132">
+        <v>0.0003067484662576687</v>
+      </c>
+      <c r="F132">
+        <v>0.75</v>
+      </c>
+      <c r="G132">
+        <v>0.002727582679849983</v>
+      </c>
+      <c r="H132">
+        <v>0.453155958605424</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>138</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0.125</v>
+      </c>
+      <c r="G133">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H133">
+        <v>0.4955738539328697</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>139</v>
+      </c>
+      <c r="C134">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="D134">
+        <v>0.125</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0.125</v>
+      </c>
+      <c r="G134">
+        <v>0.001022843504943744</v>
+      </c>
+      <c r="H134">
+        <v>0.9993384745162486</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>140</v>
+      </c>
+      <c r="C135">
+        <v>0.2857142857142858</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0.125</v>
+      </c>
+      <c r="G135">
+        <v>0.001022843504943744</v>
+      </c>
+      <c r="H135">
+        <v>0.4999534866524998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>141</v>
+      </c>
+      <c r="C136">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0.0002726653033401499</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0.002386634844868735</v>
+      </c>
+      <c r="H136">
+        <v>0.4329568730647931</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>142</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0.625</v>
+      </c>
+      <c r="E137">
+        <v>0.0002044989775051125</v>
+      </c>
+      <c r="F137">
+        <v>0.625</v>
+      </c>
+      <c r="G137">
+        <v>0.001704739174906239</v>
+      </c>
+      <c r="H137">
+        <v>0.3939623725183557</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>143</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0.75</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0.875</v>
+      </c>
+      <c r="G138">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H138">
+        <v>0.4920362641476109</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>144</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0.75</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0.875</v>
+      </c>
+      <c r="G139">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H139">
+        <v>0.1843288846636268</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>145</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0.375</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0.375</v>
+      </c>
+      <c r="G140">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H140">
+        <v>0.1634042832256042</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>146</v>
+      </c>
+      <c r="C141">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="D141">
+        <v>0.75</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0.875</v>
+      </c>
+      <c r="G141">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H141">
+        <v>0.4989484422509359</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>147</v>
+      </c>
+      <c r="C142">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="D142">
+        <v>0.75</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>0.001022843504943744</v>
+      </c>
+      <c r="H142">
+        <v>0.4956668167109278</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>148</v>
+      </c>
+      <c r="C143">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="D143">
+        <v>0.875</v>
+      </c>
+      <c r="E143">
+        <v>0.128758598928985</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>0.00477326968973747</v>
+      </c>
+      <c r="H143">
+        <v>0.4999999999998099</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>149</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0.875</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>0.001022843504943744</v>
+      </c>
+      <c r="H144">
+        <v>0.4383050782838382</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>150</v>
+      </c>
+      <c r="C145">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="D145">
+        <v>0.75</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0.75</v>
+      </c>
+      <c r="G145">
+        <v>0.0006818956699624957</v>
+      </c>
+      <c r="H145">
+        <v>0.4451667472656252</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>151</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>0.0006818956699624957</v>
+      </c>
+      <c r="H146">
+        <v>0.3898038070050904</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>152</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0.390085222790771</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0.00477326968973747</v>
+      </c>
+      <c r="H147">
+        <v>0.8264325749703882</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>153</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0.5</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0.5</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0.2257407223100426</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>154</v>
+      </c>
+      <c r="C149">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="D149">
+        <v>0.75</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0.875</v>
+      </c>
+      <c r="G149">
+        <v>0.0006818956699624957</v>
+      </c>
+      <c r="H149">
+        <v>0.4999897960058912</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>155</v>
+      </c>
+      <c r="C150">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="D150">
+        <v>0.875</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0.875</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0.4999999593364467</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>156</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0.625</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0.625</v>
+      </c>
+      <c r="G151">
+        <v>0.0006818956699624957</v>
+      </c>
+      <c r="H151">
+        <v>0.4404869024719909</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0.75</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0.75</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0.4712819631829652</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>158</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0.875</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0.875</v>
+      </c>
+      <c r="G153">
+        <v>0.0006818956699624957</v>
+      </c>
+      <c r="H153">
+        <v>0.3989892935645564</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>159</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0.875</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0.75</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0.4995386865501346</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>160</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0.125</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0.125</v>
+      </c>
+      <c r="G155">
+        <v>0.0006818956699624957</v>
+      </c>
+      <c r="H155">
+        <v>0.4781469472428402</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>161</v>
+      </c>
+      <c r="C156">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="D156">
+        <v>0.875</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0.4999964949600716</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>162</v>
+      </c>
+      <c r="C157">
+        <v>0.2857142857142858</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0.4904885527015934</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>163</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0.25</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0.125</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0.427654931015461</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>164</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0.125</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0.243042101769536</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>165</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0.125</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0.125</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0.4537671566270191</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>166</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0.625</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0.75</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0.4667583873737017</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>167</v>
+      </c>
+      <c r="C162">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="D162">
+        <v>0.875</v>
+      </c>
+      <c r="E162">
+        <v>0.00363901018922853</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>0.001363791339924991</v>
+      </c>
+      <c r="H162">
+        <v>0.4999999965058106</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>168</v>
+      </c>
+      <c r="C163">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D163">
+        <v>0.75</v>
+      </c>
+      <c r="E163">
+        <v>0.005822416302765647</v>
+      </c>
+      <c r="F163">
+        <v>0.75</v>
+      </c>
+      <c r="G163">
+        <v>0.002386634844868735</v>
+      </c>
+      <c r="H163">
+        <v>0.3412892559439507</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>169</v>
+      </c>
+      <c r="C164">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="D164">
+        <v>0.5</v>
+      </c>
+      <c r="E164">
+        <v>0.5</v>
+      </c>
+      <c r="F164">
+        <v>0.625</v>
+      </c>
+      <c r="G164">
+        <v>0.005455165359699966</v>
+      </c>
+      <c r="H164">
+        <v>0.1697043383965178</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>170</v>
+      </c>
+      <c r="C165">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="D165">
+        <v>0.875</v>
+      </c>
+      <c r="E165">
+        <v>0.0727802037845706</v>
+      </c>
+      <c r="F165">
+        <v>0.75</v>
+      </c>
+      <c r="G165">
+        <v>0.005114217524718718</v>
+      </c>
+      <c r="H165">
+        <v>0.1170653095949552</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>171</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>0.375</v>
+      </c>
+      <c r="E166">
+        <v>0.08151382823871907</v>
+      </c>
+      <c r="F166">
+        <v>0.375</v>
+      </c>
+      <c r="G166">
+        <v>0.006818956699624957</v>
+      </c>
+      <c r="H166">
+        <v>0.3354674665918562</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>172</v>
+      </c>
+      <c r="C167">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="D167">
+        <v>0.125</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0.0003409478349812479</v>
+      </c>
+      <c r="H167">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/backend/CrawlMaster/Output.xlsx
+++ b/backend/CrawlMaster/Output.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="27660" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -28,13 +28,13 @@
     <t>OpinionQuota</t>
   </si>
   <si>
+    <t>TimeQuota</t>
+  </si>
+  <si>
+    <t>EmotionQuota</t>
+  </si>
+  <si>
     <t>SummaryQuota</t>
-  </si>
-  <si>
-    <t>TimeQuota</t>
-  </si>
-  <si>
-    <t>EmotionQuota</t>
   </si>
   <si>
     <t>2023-10-23</t>
@@ -538,33 +538,376 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -587,9 +930,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -597,11 +1182,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -884,19 +1521,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H$1:H$1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <cols>
+    <col min="6" max="7" width="12.9230769230769"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -933,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2332651670074983</v>
+        <v>0.233265167007498</v>
       </c>
       <c r="F2">
+        <v>0.560518240709171</v>
+      </c>
+      <c r="G2">
+        <v>0.771004957650108</v>
+      </c>
+      <c r="H2">
         <v>0.125</v>
-      </c>
-      <c r="G2">
-        <v>0.5605182407091714</v>
-      </c>
-      <c r="H2">
-        <v>0.7710049576501077</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -959,16 +1601,16 @@
         <v>0.375</v>
       </c>
       <c r="E3">
-        <v>0.1977505112474438</v>
+        <v>0.197750511247444</v>
       </c>
       <c r="F3">
+        <v>0.326628025912035</v>
+      </c>
+      <c r="G3">
+        <v>0.763673294159855</v>
+      </c>
+      <c r="H3">
         <v>0.375</v>
-      </c>
-      <c r="G3">
-        <v>0.3266280259120354</v>
-      </c>
-      <c r="H3">
-        <v>0.7636732941598553</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -985,16 +1627,16 @@
         <v>0.875</v>
       </c>
       <c r="E4">
-        <v>0.005623721881390593</v>
+        <v>0.00562372188139059</v>
       </c>
       <c r="F4">
+        <v>0.0184111830889874</v>
+      </c>
+      <c r="G4">
+        <v>0.322745597225096</v>
+      </c>
+      <c r="H4">
         <v>0.75</v>
-      </c>
-      <c r="G4">
-        <v>0.01841118308898738</v>
-      </c>
-      <c r="H4">
-        <v>0.3227455972250962</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1011,16 +1653,16 @@
         <v>0.75</v>
       </c>
       <c r="E5">
-        <v>0.02358554873892297</v>
+        <v>0.023585548738923</v>
       </c>
       <c r="F5">
+        <v>0.0248891919536311</v>
+      </c>
+      <c r="G5">
+        <v>0.598898461347248</v>
+      </c>
+      <c r="H5">
         <v>0.875</v>
-      </c>
-      <c r="G5">
-        <v>0.02488919195363109</v>
-      </c>
-      <c r="H5">
-        <v>0.5988984613472479</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1031,22 +1673,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D6">
         <v>0.625</v>
       </c>
       <c r="E6">
-        <v>0.2920927062031357</v>
+        <v>0.292092706203136</v>
       </c>
       <c r="F6">
+        <v>0.367541766109785</v>
+      </c>
+      <c r="G6">
+        <v>0.737124032665266</v>
+      </c>
+      <c r="H6">
         <v>0.625</v>
-      </c>
-      <c r="G6">
-        <v>0.3675417661097852</v>
-      </c>
-      <c r="H6">
-        <v>0.7371240326652664</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1063,16 +1705,16 @@
         <v>0.125</v>
       </c>
       <c r="E7">
-        <v>0.07668711656441718</v>
+        <v>0.0766871165644172</v>
       </c>
       <c r="F7">
+        <v>0.493010569382884</v>
+      </c>
+      <c r="G7">
+        <v>0.720109224287406</v>
+      </c>
+      <c r="H7">
         <v>0.125</v>
-      </c>
-      <c r="G7">
-        <v>0.4930105693828844</v>
-      </c>
-      <c r="H7">
-        <v>0.7201092242874059</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1089,16 +1731,16 @@
         <v>0.625</v>
       </c>
       <c r="E8">
-        <v>0.0002385821404226312</v>
+        <v>0.000238582140422631</v>
       </c>
       <c r="F8">
+        <v>0.00204568700988749</v>
+      </c>
+      <c r="G8">
+        <v>0.489038270694396</v>
+      </c>
+      <c r="H8">
         <v>0.625</v>
-      </c>
-      <c r="G8">
-        <v>0.002045687009887488</v>
-      </c>
-      <c r="H8">
-        <v>0.4890382706943961</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1118,13 +1760,13 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <v>0.000681895669962496</v>
+      </c>
+      <c r="G9">
+        <v>0.282433844431582</v>
+      </c>
+      <c r="H9">
         <v>0.125</v>
-      </c>
-      <c r="G9">
-        <v>0.0006818956699624957</v>
-      </c>
-      <c r="H9">
-        <v>0.2824338444315822</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1141,16 +1783,16 @@
         <v>0.875</v>
       </c>
       <c r="E10">
-        <v>0.2173142467620995</v>
+        <v>0.2173142467621</v>
       </c>
       <c r="F10">
+        <v>0.601772928741902</v>
+      </c>
+      <c r="G10">
+        <v>0.762433687024359</v>
+      </c>
+      <c r="H10">
         <v>0.875</v>
-      </c>
-      <c r="G10">
-        <v>0.6017729287419025</v>
-      </c>
-      <c r="H10">
-        <v>0.7624336870243593</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1167,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4695296523517383</v>
+        <v>0.469529652351738</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.349471530855779</v>
       </c>
       <c r="G11">
-        <v>0.3494715308557791</v>
+        <v>0.761827731821278</v>
       </c>
       <c r="H11">
-        <v>0.7618277318212776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1196,13 +1838,13 @@
         <v>0</v>
       </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.336679949904563</v>
+      </c>
+      <c r="H12">
         <v>0.125</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0.3366799499045628</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1213,22 +1855,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D13">
         <v>0.75</v>
       </c>
       <c r="E13">
-        <v>0.2920245398773006</v>
+        <v>0.292024539877301</v>
       </c>
       <c r="F13">
+        <v>0.600409137401977</v>
+      </c>
+      <c r="G13">
+        <v>0.725790604870612</v>
+      </c>
+      <c r="H13">
         <v>0.625</v>
-      </c>
-      <c r="G13">
-        <v>0.6004091374019774</v>
-      </c>
-      <c r="H13">
-        <v>0.7257906048706115</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1245,16 +1887,16 @@
         <v>0.625</v>
       </c>
       <c r="E14">
-        <v>0.7460122699386503</v>
+        <v>0.74601226993865</v>
       </c>
       <c r="F14">
+        <v>0.621547903170815</v>
+      </c>
+      <c r="G14">
+        <v>0.740908865780342</v>
+      </c>
+      <c r="H14">
         <v>0.75</v>
-      </c>
-      <c r="G14">
-        <v>0.6215479031708148</v>
-      </c>
-      <c r="H14">
-        <v>0.7409088657803424</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1274,13 +1916,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.00102284350494374</v>
       </c>
       <c r="G15">
-        <v>0.001022843504943744</v>
+        <v>0.916527842427435</v>
       </c>
       <c r="H15">
-        <v>0.9165278424274346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1291,22 +1933,22 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D16">
         <v>0.375</v>
       </c>
       <c r="E16">
-        <v>0.2743012951601909</v>
+        <v>0.274301295160191</v>
       </c>
       <c r="F16">
+        <v>0.342652574156154</v>
+      </c>
+      <c r="G16">
+        <v>0.712876022191704</v>
+      </c>
+      <c r="H16">
         <v>0.125</v>
-      </c>
-      <c r="G16">
-        <v>0.3426525741561541</v>
-      </c>
-      <c r="H16">
-        <v>0.7128760221917041</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1326,13 +1968,13 @@
         <v>1</v>
       </c>
       <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.735975328790036</v>
+      </c>
+      <c r="H17">
         <v>0.5</v>
-      </c>
-      <c r="G17">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="H17">
-        <v>0.735975328790036</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1352,13 +1994,13 @@
         <v>0.323653715064758</v>
       </c>
       <c r="F18">
+        <v>0.419706784861916</v>
+      </c>
+      <c r="G18">
+        <v>0.721169673840581</v>
+      </c>
+      <c r="H18">
         <v>0.25</v>
-      </c>
-      <c r="G18">
-        <v>0.4197067848619161</v>
-      </c>
-      <c r="H18">
-        <v>0.7211696738405813</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1375,16 +2017,16 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3759372869802318</v>
+        <v>0.375937286980232</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.394135697238322</v>
       </c>
       <c r="G19">
-        <v>0.3941356972383225</v>
+        <v>0.686284760638194</v>
       </c>
       <c r="H19">
-        <v>0.6862847606381938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1401,16 +2043,16 @@
         <v>0.875</v>
       </c>
       <c r="E20">
-        <v>0.7143149284253579</v>
+        <v>0.714314928425358</v>
       </c>
       <c r="F20">
+        <v>0.703716331401296</v>
+      </c>
+      <c r="G20">
+        <v>0.693941463647636</v>
+      </c>
+      <c r="H20">
         <v>0.875</v>
-      </c>
-      <c r="G20">
-        <v>0.7037163314012955</v>
-      </c>
-      <c r="H20">
-        <v>0.6939414636476355</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1430,13 +2072,13 @@
         <v>0.372869802317655</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.372655983634504</v>
       </c>
       <c r="G21">
-        <v>0.3726559836345039</v>
+        <v>0.755328641638021</v>
       </c>
       <c r="H21">
-        <v>0.7553286416380209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1447,22 +2089,22 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D22">
         <v>0.375</v>
       </c>
       <c r="E22">
-        <v>0.8450579413769598</v>
+        <v>0.84505794137696</v>
       </c>
       <c r="F22">
+        <v>0.60654619843164</v>
+      </c>
+      <c r="G22">
+        <v>0.813164978595836</v>
+      </c>
+      <c r="H22">
         <v>0.25</v>
-      </c>
-      <c r="G22">
-        <v>0.6065461984316399</v>
-      </c>
-      <c r="H22">
-        <v>0.8131649785958364</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1479,16 +2121,16 @@
         <v>0.75</v>
       </c>
       <c r="E23">
-        <v>0.1445126107702795</v>
+        <v>0.144512610770279</v>
       </c>
       <c r="F23">
+        <v>0.642686668939652</v>
+      </c>
+      <c r="G23">
+        <v>0.66585867489648</v>
+      </c>
+      <c r="H23">
         <v>0.75</v>
-      </c>
-      <c r="G23">
-        <v>0.6426866689396522</v>
-      </c>
-      <c r="H23">
-        <v>0.6658586748964802</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1505,16 +2147,16 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5074982958418541</v>
+        <v>0.507498295841854</v>
       </c>
       <c r="F24">
+        <v>0.604841459256734</v>
+      </c>
+      <c r="G24">
+        <v>0.719834948282732</v>
+      </c>
+      <c r="H24">
         <v>0.125</v>
-      </c>
-      <c r="G24">
-        <v>0.6048414592567336</v>
-      </c>
-      <c r="H24">
-        <v>0.7198349482827323</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1525,22 +2167,22 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>0.2857142857142858</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="D25">
         <v>0.5</v>
       </c>
       <c r="E25">
-        <v>0.04226312201772325</v>
+        <v>0.0422631220177232</v>
       </c>
       <c r="F25">
+        <v>0.0828503239004432</v>
+      </c>
+      <c r="G25">
+        <v>0.742871146456345</v>
+      </c>
+      <c r="H25">
         <v>0.375</v>
-      </c>
-      <c r="G25">
-        <v>0.08285032390044324</v>
-      </c>
-      <c r="H25">
-        <v>0.742871146456345</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1557,16 +2199,16 @@
         <v>0.875</v>
       </c>
       <c r="E26">
-        <v>0.006271301976823449</v>
+        <v>0.00627130197682345</v>
       </c>
       <c r="F26">
+        <v>0.0085236958745312</v>
+      </c>
+      <c r="G26">
+        <v>0.646665466251963</v>
+      </c>
+      <c r="H26">
         <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.008523695874531195</v>
-      </c>
-      <c r="H26">
-        <v>0.6466654662519631</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1577,22 +2219,22 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>0.03674164962508521</v>
+        <v>0.0367416496250852</v>
       </c>
       <c r="F27">
+        <v>0.0279577224684623</v>
+      </c>
+      <c r="G27">
+        <v>0.564559392751856</v>
+      </c>
+      <c r="H27">
         <v>0.875</v>
-      </c>
-      <c r="G27">
-        <v>0.02795772246846232</v>
-      </c>
-      <c r="H27">
-        <v>0.5645593927518564</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1603,7 +2245,7 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>0.7142857142857143</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1612,13 +2254,13 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.000340947834981248</v>
       </c>
       <c r="G28">
-        <v>0.0003409478349812479</v>
+        <v>0.498174480186</v>
       </c>
       <c r="H28">
-        <v>0.4981744801859995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1629,22 +2271,22 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>0.8571428571428571</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="D29">
         <v>0.125</v>
       </c>
       <c r="E29">
-        <v>0.01165644171779141</v>
+        <v>0.0116564417177914</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>0.0238663484486874</v>
       </c>
       <c r="G29">
-        <v>0.02386634844868735</v>
+        <v>0.721539270175525</v>
       </c>
       <c r="H29">
-        <v>0.7215392701755245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1661,16 +2303,16 @@
         <v>0.125</v>
       </c>
       <c r="E30">
-        <v>0.05896387184730743</v>
+        <v>0.0589638718473074</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>0.0586430276167746</v>
       </c>
       <c r="G30">
-        <v>0.05864302761677463</v>
+        <v>0.708186393296354</v>
       </c>
       <c r="H30">
-        <v>0.7081863932963541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1690,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="F31">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G31">
+        <v>0.498303054814893</v>
+      </c>
+      <c r="H31">
         <v>0.25</v>
-      </c>
-      <c r="G31">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H31">
-        <v>0.4983030548148931</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1716,13 +2358,13 @@
         <v>0</v>
       </c>
       <c r="F32">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G32">
+        <v>0.499641093437673</v>
+      </c>
+      <c r="H32">
         <v>0.875</v>
-      </c>
-      <c r="G32">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H32">
-        <v>0.4996410934376735</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1733,7 +2375,7 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>0.7142857142857143</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="D33">
         <v>0.25</v>
@@ -1742,13 +2384,13 @@
         <v>0</v>
       </c>
       <c r="F33">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G33">
+        <v>0.488804538874961</v>
+      </c>
+      <c r="H33">
         <v>0.375</v>
-      </c>
-      <c r="G33">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H33">
-        <v>0.4888045388749612</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1768,13 +2410,13 @@
         <v>0</v>
       </c>
       <c r="F34">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G34">
+        <v>0.373866604153049</v>
+      </c>
+      <c r="H34">
         <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H34">
-        <v>0.3738666041530492</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1794,13 +2436,13 @@
         <v>0</v>
       </c>
       <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0.290085407855431</v>
+      </c>
+      <c r="H35">
         <v>0.5</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0.2900854078554311</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1820,13 +2462,13 @@
         <v>0</v>
       </c>
       <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0.499610606749647</v>
+      </c>
+      <c r="H36">
         <v>0.375</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0.4996106067496474</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1846,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0.489512549263238</v>
+      </c>
+      <c r="H37">
         <v>0.5</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0.4895125492632375</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1875,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>0.388867667840305</v>
       </c>
       <c r="H38">
-        <v>0.3888676678403047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1889,22 +2531,22 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D39">
         <v>0.375</v>
       </c>
       <c r="E39">
-        <v>0.03469665985003408</v>
+        <v>0.0346966598500341</v>
       </c>
       <c r="F39">
+        <v>0.0565973406068871</v>
+      </c>
+      <c r="G39">
+        <v>0.743023358059837</v>
+      </c>
+      <c r="H39">
         <v>0.375</v>
-      </c>
-      <c r="G39">
-        <v>0.05659734060688715</v>
-      </c>
-      <c r="H39">
-        <v>0.7430233580598367</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1924,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F40">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G40">
+        <v>0.498083028836117</v>
+      </c>
+      <c r="H40">
         <v>0.125</v>
-      </c>
-      <c r="G40">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H40">
-        <v>0.4980830288361171</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1953,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>0.0705518808483607</v>
       </c>
       <c r="H41">
-        <v>0.0705518808483607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1976,13 +2618,13 @@
         <v>0</v>
       </c>
       <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0.499724257268046</v>
+      </c>
+      <c r="H42">
         <v>0.5</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0.4997242572680461</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2005,10 +2647,10 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>0.499706411609003</v>
       </c>
       <c r="H43">
-        <v>0.4997064116090034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2031,10 +2673,10 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>0.461259784786561</v>
       </c>
       <c r="H44">
-        <v>0.4612597847865607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2054,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>0.00170473917490624</v>
       </c>
       <c r="G45">
-        <v>0.001704739174906239</v>
+        <v>0.663247798910474</v>
       </c>
       <c r="H45">
-        <v>0.6632477989104737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2080,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F46">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G46">
+        <v>0.499858394608184</v>
+      </c>
+      <c r="H46">
         <v>0.375</v>
-      </c>
-      <c r="G46">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H46">
-        <v>0.4998583946081844</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2106,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="F47">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G47">
+        <v>0.497429737572606</v>
+      </c>
+      <c r="H47">
         <v>0.875</v>
-      </c>
-      <c r="G47">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H47">
-        <v>0.4974297375726064</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2132,13 +2774,13 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>0.000681895669962496</v>
       </c>
       <c r="G48">
-        <v>0.0006818956699624957</v>
+        <v>0.276425445590671</v>
       </c>
       <c r="H48">
-        <v>0.2764254455906714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2158,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.000681895669962496</v>
       </c>
       <c r="G49">
-        <v>0.0006818956699624957</v>
+        <v>0.692696213210563</v>
       </c>
       <c r="H49">
-        <v>0.6926962132105626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2175,22 +2817,22 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>0.7142857142857143</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>0.03680981595092025</v>
+        <v>0.0368098159509202</v>
       </c>
       <c r="F50">
+        <v>0.0368223661779748</v>
+      </c>
+      <c r="G50">
+        <v>0.864930764969395</v>
+      </c>
+      <c r="H50">
         <v>0.875</v>
-      </c>
-      <c r="G50">
-        <v>0.03682236617797477</v>
-      </c>
-      <c r="H50">
-        <v>0.8649307649693949</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2210,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>0.625</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2236,13 +2878,13 @@
         <v>0</v>
       </c>
       <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0.499999992839126</v>
+      </c>
+      <c r="H52">
         <v>0.5</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0.4999999928391258</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2253,7 +2895,7 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>0.7142857142857143</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2262,13 +2904,13 @@
         <v>0</v>
       </c>
       <c r="F53">
+        <v>0.00102284350494374</v>
+      </c>
+      <c r="G53">
+        <v>0.412913179740114</v>
+      </c>
+      <c r="H53">
         <v>0.875</v>
-      </c>
-      <c r="G53">
-        <v>0.001022843504943744</v>
-      </c>
-      <c r="H53">
-        <v>0.4129131797401144</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2288,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>0.000340947834981248</v>
       </c>
       <c r="G54">
-        <v>0.0003409478349812479</v>
+        <v>0.469592448688962</v>
       </c>
       <c r="H54">
-        <v>0.4695924486889622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2305,7 +2947,7 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>0.7142857142857143</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="D55">
         <v>0.5</v>
@@ -2314,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="F55">
+        <v>0.00102284350494374</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
         <v>0.75</v>
-      </c>
-      <c r="G55">
-        <v>0.001022843504943744</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2340,13 +2982,13 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>0.00102284350494374</v>
       </c>
       <c r="G56">
-        <v>0.001022843504943744</v>
+        <v>0.49194685546479</v>
       </c>
       <c r="H56">
-        <v>0.4919468554647896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2366,13 +3008,13 @@
         <v>0</v>
       </c>
       <c r="F57">
+        <v>0.00102284350494374</v>
+      </c>
+      <c r="G57">
+        <v>0.915544803385285</v>
+      </c>
+      <c r="H57">
         <v>0.5</v>
-      </c>
-      <c r="G57">
-        <v>0.001022843504943744</v>
-      </c>
-      <c r="H57">
-        <v>0.9155448033852853</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2383,7 +3025,7 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2392,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="F58">
+        <v>0.00238663484486874</v>
+      </c>
+      <c r="G58">
+        <v>0.817572450318397</v>
+      </c>
+      <c r="H58">
         <v>0.125</v>
-      </c>
-      <c r="G58">
-        <v>0.002386634844868735</v>
-      </c>
-      <c r="H58">
-        <v>0.8175724503183972</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2418,13 +3060,13 @@
         <v>0</v>
       </c>
       <c r="F59">
+        <v>0.000681895669962496</v>
+      </c>
+      <c r="G59">
+        <v>0.436706044968109</v>
+      </c>
+      <c r="H59">
         <v>0.875</v>
-      </c>
-      <c r="G59">
-        <v>0.0006818956699624957</v>
-      </c>
-      <c r="H59">
-        <v>0.4367060449681092</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2444,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="F60">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G60">
+        <v>0.453182444069374</v>
+      </c>
+      <c r="H60">
         <v>0.125</v>
-      </c>
-      <c r="G60">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H60">
-        <v>0.4531824440693736</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2470,13 +3112,13 @@
         <v>0</v>
       </c>
       <c r="F61">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G61">
+        <v>0.0456457842244917</v>
+      </c>
+      <c r="H61">
         <v>0.125</v>
-      </c>
-      <c r="G61">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H61">
-        <v>0.04564578422449173</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2496,13 +3138,13 @@
         <v>0</v>
       </c>
       <c r="F62">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G62">
+        <v>0.437087531082442</v>
+      </c>
+      <c r="H62">
         <v>0.375</v>
-      </c>
-      <c r="G62">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H62">
-        <v>0.4370875310824422</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2522,13 +3164,13 @@
         <v>0</v>
       </c>
       <c r="F63">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G63">
+        <v>0.294572622515612</v>
+      </c>
+      <c r="H63">
         <v>0.875</v>
-      </c>
-      <c r="G63">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H63">
-        <v>0.2945726225156119</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2548,13 +3190,13 @@
         <v>0</v>
       </c>
       <c r="F64">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G64">
+        <v>0.480932678538683</v>
+      </c>
+      <c r="H64">
         <v>0.5</v>
-      </c>
-      <c r="G64">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H64">
-        <v>0.4809326785386829</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2574,13 +3216,13 @@
         <v>0</v>
       </c>
       <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0.0856844336636211</v>
+      </c>
+      <c r="H65">
         <v>0.25</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0.08568443366362111</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2591,7 +3233,7 @@
         <v>71</v>
       </c>
       <c r="C66">
-        <v>0.7142857142857143</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="D66">
         <v>0.875</v>
@@ -2600,13 +3242,13 @@
         <v>0</v>
       </c>
       <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0.499362870171228</v>
+      </c>
+      <c r="H66">
         <v>1</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0.4993628701712279</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2617,7 +3259,7 @@
         <v>72</v>
       </c>
       <c r="C67">
-        <v>0.7142857142857143</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="D67">
         <v>0.125</v>
@@ -2626,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0.45481330652585</v>
+      </c>
+      <c r="H67">
         <v>0.125</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0.4548133065258501</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2652,13 +3294,13 @@
         <v>0</v>
       </c>
       <c r="F68">
+        <v>0.00102284350494374</v>
+      </c>
+      <c r="G68">
+        <v>0.40843800003559</v>
+      </c>
+      <c r="H68">
         <v>0.125</v>
-      </c>
-      <c r="G68">
-        <v>0.001022843504943744</v>
-      </c>
-      <c r="H68">
-        <v>0.4084380000355904</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2669,22 +3311,22 @@
         <v>74</v>
       </c>
       <c r="C69">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D69">
         <v>0.625</v>
       </c>
       <c r="E69">
-        <v>0.0003408316291751875</v>
+        <v>0.000340831629175188</v>
       </c>
       <c r="F69">
+        <v>0.00204568700988749</v>
+      </c>
+      <c r="G69">
+        <v>0.73852743771474</v>
+      </c>
+      <c r="H69">
         <v>0.75</v>
-      </c>
-      <c r="G69">
-        <v>0.002045687009887488</v>
-      </c>
-      <c r="H69">
-        <v>0.7385274377147397</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2704,13 +3346,13 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>0.000340947834981248</v>
       </c>
       <c r="G70">
-        <v>0.0003409478349812479</v>
+        <v>0.490479249059104</v>
       </c>
       <c r="H70">
-        <v>0.4904792490591039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2730,13 +3372,13 @@
         <v>0</v>
       </c>
       <c r="F71">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G71">
+        <v>0.419135072560776</v>
+      </c>
+      <c r="H71">
         <v>0.625</v>
-      </c>
-      <c r="G71">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H71">
-        <v>0.419135072560776</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2756,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="F72">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G72">
+        <v>0.341575437987798</v>
+      </c>
+      <c r="H72">
         <v>0.5</v>
-      </c>
-      <c r="G72">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H72">
-        <v>0.3415754379877977</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2785,10 +3427,10 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>0.352827132774331</v>
       </c>
       <c r="H73">
-        <v>0.3528271327743313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2808,13 +3450,13 @@
         <v>0</v>
       </c>
       <c r="F74">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G74">
+        <v>0.483299910413245</v>
+      </c>
+      <c r="H74">
         <v>0.125</v>
-      </c>
-      <c r="G74">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H74">
-        <v>0.4832999104132449</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2825,7 +3467,7 @@
         <v>80</v>
       </c>
       <c r="C75">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D75">
         <v>0.5</v>
@@ -2834,13 +3476,13 @@
         <v>0</v>
       </c>
       <c r="F75">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G75">
+        <v>0.499914255648609</v>
+      </c>
+      <c r="H75">
         <v>0.25</v>
-      </c>
-      <c r="G75">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H75">
-        <v>0.4999142556486087</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2860,13 +3502,13 @@
         <v>0</v>
       </c>
       <c r="F76">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G76">
+        <v>0.487601567520851</v>
+      </c>
+      <c r="H76">
         <v>0.75</v>
-      </c>
-      <c r="G76">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H76">
-        <v>0.4876015675208506</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2886,13 +3528,13 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>0.000340947834981248</v>
       </c>
       <c r="G77">
-        <v>0.0003409478349812479</v>
+        <v>0.485336367338422</v>
       </c>
       <c r="H77">
-        <v>0.485336367338422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2903,7 +3545,7 @@
         <v>83</v>
       </c>
       <c r="C78">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2912,13 +3554,13 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>0.000340947834981248</v>
       </c>
       <c r="G78">
-        <v>0.0003409478349812479</v>
+        <v>0.499999988378337</v>
       </c>
       <c r="H78">
-        <v>0.4999999883783367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2938,13 +3580,13 @@
         <v>0</v>
       </c>
       <c r="F79">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G79">
+        <v>0.49179328774769</v>
+      </c>
+      <c r="H79">
         <v>0.875</v>
-      </c>
-      <c r="G79">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H79">
-        <v>0.4917932877476904</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2964,13 +3606,13 @@
         <v>0</v>
       </c>
       <c r="F80">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G80">
+        <v>0.499946836957695</v>
+      </c>
+      <c r="H80">
         <v>0.875</v>
-      </c>
-      <c r="G80">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H80">
-        <v>0.4999468369576949</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2987,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0.0008861622358554874</v>
+        <v>0.000886162235855487</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>0.00409137401977497</v>
       </c>
       <c r="G81">
-        <v>0.004091374019774974</v>
+        <v>0.276822682503672</v>
       </c>
       <c r="H81">
-        <v>0.2768226825036723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3007,22 +3649,22 @@
         <v>87</v>
       </c>
       <c r="C82">
-        <v>0.4285714285714287</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0.001942740286298568</v>
+        <v>0.00194274028629857</v>
       </c>
       <c r="F82">
+        <v>0.00613706102966246</v>
+      </c>
+      <c r="G82">
+        <v>0.474844857787915</v>
+      </c>
+      <c r="H82">
         <v>0.125</v>
-      </c>
-      <c r="G82">
-        <v>0.006137061029662462</v>
-      </c>
-      <c r="H82">
-        <v>0.474844857787915</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3033,7 +3675,7 @@
         <v>88</v>
       </c>
       <c r="C83">
-        <v>0.2857142857142858</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="D83">
         <v>0.25</v>
@@ -3042,13 +3684,13 @@
         <v>0</v>
       </c>
       <c r="F83">
+        <v>0.000681895669962496</v>
+      </c>
+      <c r="G83">
+        <v>0.499999999643664</v>
+      </c>
+      <c r="H83">
         <v>0.125</v>
-      </c>
-      <c r="G83">
-        <v>0.0006818956699624957</v>
-      </c>
-      <c r="H83">
-        <v>0.4999999996436644</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3068,13 +3710,13 @@
         <v>0</v>
       </c>
       <c r="F84">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G84">
+        <v>0.498781831877757</v>
+      </c>
+      <c r="H84">
         <v>0.25</v>
-      </c>
-      <c r="G84">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H84">
-        <v>0.4987818318777573</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3094,13 +3736,13 @@
         <v>0</v>
       </c>
       <c r="F85">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G85">
+        <v>0.332694493748477</v>
+      </c>
+      <c r="H85">
         <v>0.375</v>
-      </c>
-      <c r="G85">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H85">
-        <v>0.3326944937484766</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3117,16 +3759,16 @@
         <v>0.5</v>
       </c>
       <c r="E86">
-        <v>0.004942058623040218</v>
+        <v>0.00494205862304022</v>
       </c>
       <c r="F86">
+        <v>0.00954653937947494</v>
+      </c>
+      <c r="G86">
+        <v>0.261933205767104</v>
+      </c>
+      <c r="H86">
         <v>0.5</v>
-      </c>
-      <c r="G86">
-        <v>0.009546539379474939</v>
-      </c>
-      <c r="H86">
-        <v>0.2619332057671043</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3146,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="F87">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G87">
+        <v>0.480180069817496</v>
+      </c>
+      <c r="H87">
         <v>0.75</v>
-      </c>
-      <c r="G87">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H87">
-        <v>0.4801800698174958</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3163,22 +3805,22 @@
         <v>93</v>
       </c>
       <c r="C88">
-        <v>0.1785714285714286</v>
+        <v>0.178571428571429</v>
       </c>
       <c r="D88">
         <v>0.25</v>
       </c>
       <c r="E88">
-        <v>0.3954184191961136</v>
+        <v>0.395418419196114</v>
       </c>
       <c r="F88">
+        <v>0.00954653937947494</v>
+      </c>
+      <c r="G88">
+        <v>0.865245591683574</v>
+      </c>
+      <c r="H88">
         <v>0.125</v>
-      </c>
-      <c r="G88">
-        <v>0.009546539379474939</v>
-      </c>
-      <c r="H88">
-        <v>0.8652455916835738</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3195,16 +3837,16 @@
         <v>0.25</v>
       </c>
       <c r="E89">
-        <v>0.0008861622358554874</v>
+        <v>0.000886162235855487</v>
       </c>
       <c r="F89">
+        <v>0.00409137401977497</v>
+      </c>
+      <c r="G89">
+        <v>0.419143342138868</v>
+      </c>
+      <c r="H89">
         <v>0.375</v>
-      </c>
-      <c r="G89">
-        <v>0.004091374019774974</v>
-      </c>
-      <c r="H89">
-        <v>0.4191433421388684</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3221,16 +3863,16 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0.006032719836400818</v>
+        <v>0.00603271983640082</v>
       </c>
       <c r="F90">
+        <v>0.0197749744289124</v>
+      </c>
+      <c r="G90">
+        <v>0.419341077740883</v>
+      </c>
+      <c r="H90">
         <v>0.125</v>
-      </c>
-      <c r="G90">
-        <v>0.01977497442891238</v>
-      </c>
-      <c r="H90">
-        <v>0.4193410777408833</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3250,13 +3892,13 @@
         <v>0.0147239263803681</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>0.0242072962836686</v>
       </c>
       <c r="G91">
-        <v>0.0242072962836686</v>
+        <v>0.369741741601163</v>
       </c>
       <c r="H91">
-        <v>0.3697417416011625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3276,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="F92">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G92">
+        <v>0.499999909190636</v>
+      </c>
+      <c r="H92">
         <v>0.375</v>
-      </c>
-      <c r="G92">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H92">
-        <v>0.499999909190636</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3302,13 +3944,13 @@
         <v>0.0016359918200409</v>
       </c>
       <c r="F93">
+        <v>0.0160245482441186</v>
+      </c>
+      <c r="G93">
+        <v>0.418334936573669</v>
+      </c>
+      <c r="H93">
         <v>0.75</v>
-      </c>
-      <c r="G93">
-        <v>0.01602454824411865</v>
-      </c>
-      <c r="H93">
-        <v>0.4183349365736686</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3319,22 +3961,22 @@
         <v>99</v>
       </c>
       <c r="C94">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0.004771642808452624</v>
+        <v>0.00477164280845262</v>
       </c>
       <c r="F94">
+        <v>0.00920559154449369</v>
+      </c>
+      <c r="G94">
+        <v>0.388227087804514</v>
+      </c>
+      <c r="H94">
         <v>1</v>
-      </c>
-      <c r="G94">
-        <v>0.009205591544493692</v>
-      </c>
-      <c r="H94">
-        <v>0.3882270878045144</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3351,16 +3993,16 @@
         <v>0.875</v>
       </c>
       <c r="E95">
-        <v>0.004942058623040218</v>
+        <v>0.00494205862304022</v>
       </c>
       <c r="F95">
+        <v>0.00954653937947494</v>
+      </c>
+      <c r="G95">
+        <v>0.42769279626832</v>
+      </c>
+      <c r="H95">
         <v>1</v>
-      </c>
-      <c r="G95">
-        <v>0.009546539379474939</v>
-      </c>
-      <c r="H95">
-        <v>0.4276927962683199</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3380,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="F96">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G96">
+        <v>0.364394842501165</v>
+      </c>
+      <c r="H96">
         <v>1</v>
-      </c>
-      <c r="G96">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H96">
-        <v>0.3643948425011646</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3406,13 +4048,13 @@
         <v>0</v>
       </c>
       <c r="F97">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
         <v>1</v>
-      </c>
-      <c r="G97">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3429,16 +4071,16 @@
         <v>0.5</v>
       </c>
       <c r="E98">
-        <v>0.0006816632583503749</v>
+        <v>0.000681663258350375</v>
       </c>
       <c r="F98">
+        <v>0.00306853051483123</v>
+      </c>
+      <c r="G98">
+        <v>0.494631852062421</v>
+      </c>
+      <c r="H98">
         <v>0.5</v>
-      </c>
-      <c r="G98">
-        <v>0.00306853051483123</v>
-      </c>
-      <c r="H98">
-        <v>0.4946318520624214</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3449,7 +4091,7 @@
         <v>104</v>
       </c>
       <c r="C99">
-        <v>0.6785714285714286</v>
+        <v>0.678571428571429</v>
       </c>
       <c r="D99">
         <v>0.25</v>
@@ -3458,13 +4100,13 @@
         <v>0</v>
       </c>
       <c r="F99">
+        <v>0.00204568700988749</v>
+      </c>
+      <c r="G99">
+        <v>0.934578875594177</v>
+      </c>
+      <c r="H99">
         <v>0.25</v>
-      </c>
-      <c r="G99">
-        <v>0.002045687009887488</v>
-      </c>
-      <c r="H99">
-        <v>0.9345788755941766</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3484,13 +4126,13 @@
         <v>0</v>
       </c>
       <c r="F100">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G100">
+        <v>0.294296476046469</v>
+      </c>
+      <c r="H100">
         <v>0.375</v>
-      </c>
-      <c r="G100">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H100">
-        <v>0.2942964760464685</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3510,13 +4152,13 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>0.000681895669962496</v>
       </c>
       <c r="G101">
-        <v>0.0006818956699624957</v>
+        <v>0.49979781210172</v>
       </c>
       <c r="H101">
-        <v>0.49979781210172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3533,16 +4175,16 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>0.0008179959100204499</v>
+        <v>0.00081799591002045</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>0.00375042618479373</v>
       </c>
       <c r="G102">
-        <v>0.003750426184793727</v>
+        <v>0.421679088089331</v>
       </c>
       <c r="H102">
-        <v>0.4216790880893309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3562,13 +4204,13 @@
         <v>0</v>
       </c>
       <c r="F103">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G103">
+        <v>0.25338963515955</v>
+      </c>
+      <c r="H103">
         <v>0.25</v>
-      </c>
-      <c r="G103">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H103">
-        <v>0.25338963515955</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3585,16 +4227,16 @@
         <v>0.625</v>
       </c>
       <c r="E104">
-        <v>0.0002044989775051125</v>
+        <v>0.000204498977505113</v>
       </c>
       <c r="F104">
+        <v>0.00170473917490624</v>
+      </c>
+      <c r="G104">
+        <v>0.390597166419644</v>
+      </c>
+      <c r="H104">
         <v>0.375</v>
-      </c>
-      <c r="G104">
-        <v>0.001704739174906239</v>
-      </c>
-      <c r="H104">
-        <v>0.3905971664196438</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3614,13 +4256,13 @@
         <v>0.00299931833674165</v>
       </c>
       <c r="F105">
+        <v>0.00715990453460621</v>
+      </c>
+      <c r="G105">
+        <v>0.383518787874758</v>
+      </c>
+      <c r="H105">
         <v>1</v>
-      </c>
-      <c r="G105">
-        <v>0.007159904534606206</v>
-      </c>
-      <c r="H105">
-        <v>0.3835187878747583</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3640,13 +4282,13 @@
         <v>0</v>
       </c>
       <c r="F106">
+        <v>0.000681895669962496</v>
+      </c>
+      <c r="G106">
+        <v>0.343572859997203</v>
+      </c>
+      <c r="H106">
         <v>0.375</v>
-      </c>
-      <c r="G106">
-        <v>0.0006818956699624957</v>
-      </c>
-      <c r="H106">
-        <v>0.3435728599972035</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3666,13 +4308,13 @@
         <v>0</v>
       </c>
       <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0.493490220217223</v>
+      </c>
+      <c r="H107">
         <v>0.625</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>0.4934902202172233</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3692,13 +4334,13 @@
         <v>0</v>
       </c>
       <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0.0763573764324328</v>
+      </c>
+      <c r="H108">
         <v>0.875</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>0.07635737643243279</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3709,7 +4351,7 @@
         <v>114</v>
       </c>
       <c r="C109">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D109">
         <v>0.25</v>
@@ -3718,13 +4360,13 @@
         <v>0.0016359918200409</v>
       </c>
       <c r="F109">
+        <v>0.00511421752471872</v>
+      </c>
+      <c r="G109">
+        <v>0.427096852078818</v>
+      </c>
+      <c r="H109">
         <v>0.25</v>
-      </c>
-      <c r="G109">
-        <v>0.005114217524718718</v>
-      </c>
-      <c r="H109">
-        <v>0.4270968520788182</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3744,13 +4386,13 @@
         <v>0.0027266530334015</v>
       </c>
       <c r="F110">
+        <v>0.00647800886464371</v>
+      </c>
+      <c r="G110">
+        <v>0.37315413371711</v>
+      </c>
+      <c r="H110">
         <v>0.875</v>
-      </c>
-      <c r="G110">
-        <v>0.006478008864643709</v>
-      </c>
-      <c r="H110">
-        <v>0.3731541337171098</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3770,13 +4412,13 @@
         <v>0.00299931833674165</v>
       </c>
       <c r="F111">
+        <v>0.00715990453460621</v>
+      </c>
+      <c r="G111">
+        <v>0.442345894172251</v>
+      </c>
+      <c r="H111">
         <v>0.25</v>
-      </c>
-      <c r="G111">
-        <v>0.007159904534606206</v>
-      </c>
-      <c r="H111">
-        <v>0.4423458941722505</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3796,13 +4438,13 @@
         <v>0</v>
       </c>
       <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
         <v>0.125</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3822,13 +4464,13 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>0.000340947834981248</v>
       </c>
       <c r="G113">
-        <v>0.0003409478349812479</v>
+        <v>0.263750783615609</v>
       </c>
       <c r="H113">
-        <v>0.2637507836156086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3848,13 +4490,13 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>0.000340947834981248</v>
       </c>
       <c r="G114">
-        <v>0.0003409478349812479</v>
+        <v>0.499953249090437</v>
       </c>
       <c r="H114">
-        <v>0.4999532490904371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3865,7 +4507,7 @@
         <v>120</v>
       </c>
       <c r="C115">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -3874,13 +4516,13 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>0.00102284350494374</v>
       </c>
       <c r="G115">
-        <v>0.001022843504943744</v>
+        <v>0.499951784136559</v>
       </c>
       <c r="H115">
-        <v>0.4999517841365594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3891,22 +4533,22 @@
         <v>121</v>
       </c>
       <c r="C116">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D116">
         <v>0.25</v>
       </c>
       <c r="E116">
-        <v>0.0001704158145875937</v>
+        <v>0.000170415814587594</v>
       </c>
       <c r="F116">
+        <v>0.00136379133992499</v>
+      </c>
+      <c r="G116">
+        <v>0.466596024466716</v>
+      </c>
+      <c r="H116">
         <v>0.125</v>
-      </c>
-      <c r="G116">
-        <v>0.001363791339924991</v>
-      </c>
-      <c r="H116">
-        <v>0.4665960244667163</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3926,13 +4568,13 @@
         <v>0</v>
       </c>
       <c r="F117">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G117">
+        <v>0.499996653205845</v>
+      </c>
+      <c r="H117">
         <v>0.75</v>
-      </c>
-      <c r="G117">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H117">
-        <v>0.4999966532058449</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3949,16 +4591,16 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>0.0002726653033401499</v>
+        <v>0.00027266530334015</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>0.00238663484486874</v>
       </c>
       <c r="G118">
-        <v>0.002386634844868735</v>
+        <v>0.335893399322408</v>
       </c>
       <c r="H118">
-        <v>0.3358933993224075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3969,22 +4611,22 @@
         <v>124</v>
       </c>
       <c r="C119">
-        <v>0.1785714285714286</v>
+        <v>0.178571428571429</v>
       </c>
       <c r="D119">
         <v>0.625</v>
       </c>
       <c r="E119">
-        <v>0.03885614523892446</v>
+        <v>0.0388561452389245</v>
       </c>
       <c r="F119">
+        <v>0.00681895669962496</v>
+      </c>
+      <c r="G119">
+        <v>0.826171376728128</v>
+      </c>
+      <c r="H119">
         <v>0.75</v>
-      </c>
-      <c r="G119">
-        <v>0.006818956699624957</v>
-      </c>
-      <c r="H119">
-        <v>0.8261713767281276</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3995,22 +4637,22 @@
         <v>125</v>
       </c>
       <c r="C120">
-        <v>0.4285714285714287</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>0.0008179959100204499</v>
+        <v>0.00081799591002045</v>
       </c>
       <c r="F120">
+        <v>0.00375042618479373</v>
+      </c>
+      <c r="G120">
+        <v>0.446839446472557</v>
+      </c>
+      <c r="H120">
         <v>0.125</v>
-      </c>
-      <c r="G120">
-        <v>0.003750426184793727</v>
-      </c>
-      <c r="H120">
-        <v>0.446839446472557</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4027,16 +4669,16 @@
         <v>0.625</v>
       </c>
       <c r="E121">
-        <v>0.004601226993865031</v>
+        <v>0.00460122699386503</v>
       </c>
       <c r="F121">
+        <v>0.00886464370951244</v>
+      </c>
+      <c r="G121">
+        <v>0.437280728952344</v>
+      </c>
+      <c r="H121">
         <v>0.625</v>
-      </c>
-      <c r="G121">
-        <v>0.008864643709512444</v>
-      </c>
-      <c r="H121">
-        <v>0.437280728952344</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4056,13 +4698,13 @@
         <v>0</v>
       </c>
       <c r="F122">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G122">
+        <v>0.40351602580643</v>
+      </c>
+      <c r="H122">
         <v>0.125</v>
-      </c>
-      <c r="G122">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H122">
-        <v>0.4035160258064303</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4073,7 +4715,7 @@
         <v>128</v>
       </c>
       <c r="C123">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D123">
         <v>0.5</v>
@@ -4082,13 +4724,13 @@
         <v>0.0027266530334015</v>
       </c>
       <c r="F123">
+        <v>0.00647800886464371</v>
+      </c>
+      <c r="G123">
+        <v>0.466584569249667</v>
+      </c>
+      <c r="H123">
         <v>0.75</v>
-      </c>
-      <c r="G123">
-        <v>0.006478008864643709</v>
-      </c>
-      <c r="H123">
-        <v>0.4665845692496673</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4105,16 +4747,16 @@
         <v>0.125</v>
       </c>
       <c r="E124">
-        <v>0.0002726653033401499</v>
+        <v>0.00027266530334015</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>0.00238663484486874</v>
       </c>
       <c r="G124">
-        <v>0.002386634844868735</v>
+        <v>0.456712652553647</v>
       </c>
       <c r="H124">
-        <v>0.4567126525536466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4131,16 +4773,16 @@
         <v>0.5</v>
       </c>
       <c r="E125">
-        <v>0.0001704158145875937</v>
+        <v>0.000170415814587594</v>
       </c>
       <c r="F125">
+        <v>0.00136379133992499</v>
+      </c>
+      <c r="G125">
+        <v>0.499986602501389</v>
+      </c>
+      <c r="H125">
         <v>0.375</v>
-      </c>
-      <c r="G125">
-        <v>0.001363791339924991</v>
-      </c>
-      <c r="H125">
-        <v>0.4999866025013887</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4160,13 +4802,13 @@
         <v>0.000954328561690525</v>
       </c>
       <c r="F126">
+        <v>0.00443232185475622</v>
+      </c>
+      <c r="G126">
+        <v>0.46205438880748</v>
+      </c>
+      <c r="H126">
         <v>0.875</v>
-      </c>
-      <c r="G126">
-        <v>0.004432321854756223</v>
-      </c>
-      <c r="H126">
-        <v>0.4620543888074802</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4186,13 +4828,13 @@
         <v>0</v>
       </c>
       <c r="F127">
+        <v>0.000681895669962496</v>
+      </c>
+      <c r="G127">
+        <v>0.197879195182368</v>
+      </c>
+      <c r="H127">
         <v>0.5</v>
-      </c>
-      <c r="G127">
-        <v>0.0006818956699624957</v>
-      </c>
-      <c r="H127">
-        <v>0.197879195182368</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4209,16 +4851,16 @@
         <v>0.25</v>
       </c>
       <c r="E128">
-        <v>0.0008179959100204499</v>
+        <v>0.00081799591002045</v>
       </c>
       <c r="F128">
+        <v>0.00375042618479373</v>
+      </c>
+      <c r="G128">
+        <v>0.354174502500982</v>
+      </c>
+      <c r="H128">
         <v>0.375</v>
-      </c>
-      <c r="G128">
-        <v>0.003750426184793727</v>
-      </c>
-      <c r="H128">
-        <v>0.3541745025009818</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4229,22 +4871,22 @@
         <v>134</v>
       </c>
       <c r="C129">
-        <v>0.5357142857142857</v>
+        <v>0.535714285714286</v>
       </c>
       <c r="D129">
         <v>0.125</v>
       </c>
       <c r="E129">
-        <v>0.01523770401526449</v>
+        <v>0.0152377040152645</v>
       </c>
       <c r="F129">
+        <v>0.00409137401977497</v>
+      </c>
+      <c r="G129">
+        <v>0.996463410119074</v>
+      </c>
+      <c r="H129">
         <v>0.125</v>
-      </c>
-      <c r="G129">
-        <v>0.004091374019774974</v>
-      </c>
-      <c r="H129">
-        <v>0.9964634101190739</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4261,16 +4903,16 @@
         <v>0.75</v>
       </c>
       <c r="E130">
-        <v>0.001533742331288344</v>
+        <v>0.00153374233128834</v>
       </c>
       <c r="F130">
+        <v>0.00477326968973747</v>
+      </c>
+      <c r="G130">
+        <v>0.330642166064301</v>
+      </c>
+      <c r="H130">
         <v>0.875</v>
-      </c>
-      <c r="G130">
-        <v>0.00477326968973747</v>
-      </c>
-      <c r="H130">
-        <v>0.3306421660643009</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4281,7 +4923,7 @@
         <v>136</v>
       </c>
       <c r="C131">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -4290,13 +4932,13 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>0.000681895669962496</v>
       </c>
       <c r="G131">
-        <v>0.0006818956699624957</v>
+        <v>0.5</v>
       </c>
       <c r="H131">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4313,16 +4955,16 @@
         <v>0.625</v>
       </c>
       <c r="E132">
-        <v>0.0003067484662576687</v>
+        <v>0.000306748466257669</v>
       </c>
       <c r="F132">
+        <v>0.00272758267984998</v>
+      </c>
+      <c r="G132">
+        <v>0.453155958605424</v>
+      </c>
+      <c r="H132">
         <v>0.75</v>
-      </c>
-      <c r="G132">
-        <v>0.002727582679849983</v>
-      </c>
-      <c r="H132">
-        <v>0.453155958605424</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4342,13 +4984,13 @@
         <v>0</v>
       </c>
       <c r="F133">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G133">
+        <v>0.49557385393287</v>
+      </c>
+      <c r="H133">
         <v>0.125</v>
-      </c>
-      <c r="G133">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H133">
-        <v>0.4955738539328697</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4359,7 +5001,7 @@
         <v>139</v>
       </c>
       <c r="C134">
-        <v>0.3214285714285715</v>
+        <v>0.321428571428572</v>
       </c>
       <c r="D134">
         <v>0.125</v>
@@ -4368,13 +5010,13 @@
         <v>0</v>
       </c>
       <c r="F134">
+        <v>0.00102284350494374</v>
+      </c>
+      <c r="G134">
+        <v>0.999338474516249</v>
+      </c>
+      <c r="H134">
         <v>0.125</v>
-      </c>
-      <c r="G134">
-        <v>0.001022843504943744</v>
-      </c>
-      <c r="H134">
-        <v>0.9993384745162486</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4385,7 +5027,7 @@
         <v>140</v>
       </c>
       <c r="C135">
-        <v>0.2857142857142858</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -4394,13 +5036,13 @@
         <v>0</v>
       </c>
       <c r="F135">
+        <v>0.00102284350494374</v>
+      </c>
+      <c r="G135">
+        <v>0.4999534866525</v>
+      </c>
+      <c r="H135">
         <v>0.125</v>
-      </c>
-      <c r="G135">
-        <v>0.001022843504943744</v>
-      </c>
-      <c r="H135">
-        <v>0.4999534866524998</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4411,22 +5053,22 @@
         <v>141</v>
       </c>
       <c r="C136">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>0.0002726653033401499</v>
+        <v>0.00027266530334015</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>0.00238663484486874</v>
       </c>
       <c r="G136">
-        <v>0.002386634844868735</v>
+        <v>0.432956873064793</v>
       </c>
       <c r="H136">
-        <v>0.4329568730647931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4443,16 +5085,16 @@
         <v>0.625</v>
       </c>
       <c r="E137">
-        <v>0.0002044989775051125</v>
+        <v>0.000204498977505113</v>
       </c>
       <c r="F137">
+        <v>0.00170473917490624</v>
+      </c>
+      <c r="G137">
+        <v>0.393962372518356</v>
+      </c>
+      <c r="H137">
         <v>0.625</v>
-      </c>
-      <c r="G137">
-        <v>0.001704739174906239</v>
-      </c>
-      <c r="H137">
-        <v>0.3939623725183557</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4472,13 +5114,13 @@
         <v>0</v>
       </c>
       <c r="F138">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G138">
+        <v>0.492036264147611</v>
+      </c>
+      <c r="H138">
         <v>0.875</v>
-      </c>
-      <c r="G138">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H138">
-        <v>0.4920362641476109</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4498,13 +5140,13 @@
         <v>0</v>
       </c>
       <c r="F139">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G139">
+        <v>0.184328884663627</v>
+      </c>
+      <c r="H139">
         <v>0.875</v>
-      </c>
-      <c r="G139">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H139">
-        <v>0.1843288846636268</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4524,13 +5166,13 @@
         <v>0</v>
       </c>
       <c r="F140">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G140">
+        <v>0.163404283225604</v>
+      </c>
+      <c r="H140">
         <v>0.375</v>
-      </c>
-      <c r="G140">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H140">
-        <v>0.1634042832256042</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4541,7 +5183,7 @@
         <v>146</v>
       </c>
       <c r="C141">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D141">
         <v>0.75</v>
@@ -4550,13 +5192,13 @@
         <v>0</v>
       </c>
       <c r="F141">
+        <v>0.000340947834981248</v>
+      </c>
+      <c r="G141">
+        <v>0.498948442250936</v>
+      </c>
+      <c r="H141">
         <v>0.875</v>
-      </c>
-      <c r="G141">
-        <v>0.0003409478349812479</v>
-      </c>
-      <c r="H141">
-        <v>0.4989484422509359</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4567,7 +5209,7 @@
         <v>147</v>
       </c>
       <c r="C142">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D142">
         <v>0.75</v>
@@ -4576,13 +5218,13 @@
         <v>0</v>
       </c>
       <c r="F142">
+        <v>0.00102284350494374</v>
+      </c>
+      <c r="G142">
+        <v>0.495666816710928</v>
+      </c>
+      <c r="H142">
         <v>1</v>
-      </c>
-      <c r="G142">
-        <v>0.001022843504943744</v>
-      </c>
-      <c r="H142">
-        <v>0.4956668167109278</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4593,7 +5235,7 @@
         <v>148</v>
       </c>
       <c r="C143">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D143">
         <v>0.875</v>
@@ -4602,13 +5244,13 @@
         <v>0.128758598928985</v>
       </c>
       <c r="F143">
+        <v>0.00477326968973747</v>
+      </c>
+      <c r="G143">
+        <v>0.49999999999981</v>
+      </c>
+      <c r="H143">
         <v>1</v>
-      </c>
-      <c r="G143">
-        <v>0.00477326968973747</v>
-      </c>
-      <c r="H143">
-        <v>0.4999999999998099</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4628,13 +5270,13 @@
         <v>0</v>
       </c>
       <c r="F144">
+        <v>0.00102284350494374</v>
+      </c>
+      <c r="G144">
+        <v>0.438305078283838</v>
+      </c>
+      <c r="H144">
         <v>1</v>
-      </c>
-      <c r="G144">
-        <v>0.001022843504943744</v>
-      </c>
-      <c r="H144">
-        <v>0.4383050782838382</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4645,7 +5287,7 @@
         <v>150</v>
       </c>
       <c r="C145">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D145">
         <v>0.75</v>
@@ -4654,13 +5296,13 @@
         <v>0</v>
       </c>
       <c r="F145">
+        <v>0.000681895669962496</v>
+      </c>
+      <c r="G145">
+        <v>0.445166747265625</v>
+      </c>
+      <c r="H145">
         <v>0.75</v>
-      </c>
-      <c r="G145">
-        <v>0.0006818956699624957</v>
-      </c>
-      <c r="H145">
-        <v>0.4451667472656252</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4680,13 +5322,13 @@
         <v>0</v>
       </c>
       <c r="F146">
+        <v>0.000681895669962496</v>
+      </c>
+      <c r="G146">
+        <v>0.38980380700509</v>
+      </c>
+      <c r="H146">
         <v>1</v>
-      </c>
-      <c r="G146">
-        <v>0.0006818956699624957</v>
-      </c>
-      <c r="H146">
-        <v>0.3898038070050904</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4706,13 +5348,13 @@
         <v>0.390085222790771</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>0.00477326968973747</v>
       </c>
       <c r="G147">
-        <v>0.00477326968973747</v>
+        <v>0.826432574970388</v>
       </c>
       <c r="H147">
-        <v>0.8264325749703882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4732,13 +5374,13 @@
         <v>0</v>
       </c>
       <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0.225740722310043</v>
+      </c>
+      <c r="H148">
         <v>0.5</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>0.2257407223100426</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4749,7 +5391,7 @@
         <v>154</v>
       </c>
       <c r="C149">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D149">
         <v>0.75</v>
@@ -4758,13 +5400,13 @@
         <v>0</v>
       </c>
       <c r="F149">
+        <v>0.000681895669962496</v>
+      </c>
+      <c r="G149">
+        <v>0.499989796005891</v>
+      </c>
+      <c r="H149">
         <v>0.875</v>
-      </c>
-      <c r="G149">
-        <v>0.0006818956699624957</v>
-      </c>
-      <c r="H149">
-        <v>0.4999897960058912</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4775,7 +5417,7 @@
         <v>155</v>
       </c>
       <c r="C150">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D150">
         <v>0.875</v>
@@ -4784,13 +5426,13 @@
         <v>0</v>
       </c>
       <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0.499999959336447</v>
+      </c>
+      <c r="H150">
         <v>0.875</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>0.4999999593364467</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4810,13 +5452,13 @@
         <v>0</v>
       </c>
       <c r="F151">
+        <v>0.000681895669962496</v>
+      </c>
+      <c r="G151">
+        <v>0.440486902471991</v>
+      </c>
+      <c r="H151">
         <v>0.625</v>
-      </c>
-      <c r="G151">
-        <v>0.0006818956699624957</v>
-      </c>
-      <c r="H151">
-        <v>0.4404869024719909</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4836,13 +5478,13 @@
         <v>0</v>
       </c>
       <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0.471281963182965</v>
+      </c>
+      <c r="H152">
         <v>0.75</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>0.4712819631829652</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4862,13 +5504,13 @@
         <v>0</v>
       </c>
       <c r="F153">
+        <v>0.000681895669962496</v>
+      </c>
+      <c r="G153">
+        <v>0.398989293564556</v>
+      </c>
+      <c r="H153">
         <v>0.875</v>
-      </c>
-      <c r="G153">
-        <v>0.0006818956699624957</v>
-      </c>
-      <c r="H153">
-        <v>0.3989892935645564</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4888,13 +5530,13 @@
         <v>0</v>
       </c>
       <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0.499538686550135</v>
+      </c>
+      <c r="H154">
         <v>0.75</v>
-      </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-      <c r="H154">
-        <v>0.4995386865501346</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4914,13 +5556,13 @@
         <v>0</v>
       </c>
       <c r="F155">
+        <v>0.000681895669962496</v>
+      </c>
+      <c r="G155">
+        <v>0.47814694724284</v>
+      </c>
+      <c r="H155">
         <v>0.125</v>
-      </c>
-      <c r="G155">
-        <v>0.0006818956699624957</v>
-      </c>
-      <c r="H155">
-        <v>0.4781469472428402</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4931,7 +5573,7 @@
         <v>161</v>
       </c>
       <c r="C156">
-        <v>0.1428571428571429</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="D156">
         <v>0.875</v>
@@ -4940,13 +5582,13 @@
         <v>0</v>
       </c>
       <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0.499996494960072</v>
+      </c>
+      <c r="H156">
         <v>1</v>
-      </c>
-      <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <v>0.4999964949600716</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4957,7 +5599,7 @@
         <v>162</v>
       </c>
       <c r="C157">
-        <v>0.2857142857142858</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -4969,10 +5611,10 @@
         <v>0</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>0.490488552701593</v>
       </c>
       <c r="H157">
-        <v>0.4904885527015934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4992,13 +5634,13 @@
         <v>0</v>
       </c>
       <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0.427654931015461</v>
+      </c>
+      <c r="H158">
         <v>0.125</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-      <c r="H158">
-        <v>0.427654931015461</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5021,10 +5663,10 @@
         <v>0</v>
       </c>
       <c r="G159">
-        <v>0</v>
+        <v>0.243042101769536</v>
       </c>
       <c r="H159">
-        <v>0.243042101769536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5044,13 +5686,13 @@
         <v>0</v>
       </c>
       <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0.453767156627019</v>
+      </c>
+      <c r="H160">
         <v>0.125</v>
-      </c>
-      <c r="G160">
-        <v>0</v>
-      </c>
-      <c r="H160">
-        <v>0.4537671566270191</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5070,13 +5712,13 @@
         <v>0</v>
       </c>
       <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0.466758387373702</v>
+      </c>
+      <c r="H161">
         <v>0.75</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-      <c r="H161">
-        <v>0.4667583873737017</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5087,7 +5729,7 @@
         <v>167</v>
       </c>
       <c r="C162">
-        <v>0.1785714285714286</v>
+        <v>0.178571428571429</v>
       </c>
       <c r="D162">
         <v>0.875</v>
@@ -5096,13 +5738,13 @@
         <v>0.00363901018922853</v>
       </c>
       <c r="F162">
+        <v>0.00136379133992499</v>
+      </c>
+      <c r="G162">
+        <v>0.499999996505811</v>
+      </c>
+      <c r="H162">
         <v>1</v>
-      </c>
-      <c r="G162">
-        <v>0.001363791339924991</v>
-      </c>
-      <c r="H162">
-        <v>0.4999999965058106</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5113,22 +5755,22 @@
         <v>168</v>
       </c>
       <c r="C163">
-        <v>0.7142857142857143</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="D163">
         <v>0.75</v>
       </c>
       <c r="E163">
-        <v>0.005822416302765647</v>
+        <v>0.00582241630276565</v>
       </c>
       <c r="F163">
+        <v>0.00238663484486874</v>
+      </c>
+      <c r="G163">
+        <v>0.341289255943951</v>
+      </c>
+      <c r="H163">
         <v>0.75</v>
-      </c>
-      <c r="G163">
-        <v>0.002386634844868735</v>
-      </c>
-      <c r="H163">
-        <v>0.3412892559439507</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5139,7 +5781,7 @@
         <v>169</v>
       </c>
       <c r="C164">
-        <v>0.3571428571428572</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="D164">
         <v>0.5</v>
@@ -5148,13 +5790,13 @@
         <v>0.5</v>
       </c>
       <c r="F164">
+        <v>0.00545516535969997</v>
+      </c>
+      <c r="G164">
+        <v>0.169704338396518</v>
+      </c>
+      <c r="H164">
         <v>0.625</v>
-      </c>
-      <c r="G164">
-        <v>0.005455165359699966</v>
-      </c>
-      <c r="H164">
-        <v>0.1697043383965178</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5165,7 +5807,7 @@
         <v>170</v>
       </c>
       <c r="C165">
-        <v>0.1785714285714286</v>
+        <v>0.178571428571429</v>
       </c>
       <c r="D165">
         <v>0.875</v>
@@ -5174,13 +5816,13 @@
         <v>0.0727802037845706</v>
       </c>
       <c r="F165">
+        <v>0.00511421752471872</v>
+      </c>
+      <c r="G165">
+        <v>0.117065309594955</v>
+      </c>
+      <c r="H165">
         <v>0.75</v>
-      </c>
-      <c r="G165">
-        <v>0.005114217524718718</v>
-      </c>
-      <c r="H165">
-        <v>0.1170653095949552</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5197,16 +5839,16 @@
         <v>0.375</v>
       </c>
       <c r="E166">
-        <v>0.08151382823871907</v>
+        <v>0.0815138282387191</v>
       </c>
       <c r="F166">
+        <v>0.00681895669962496</v>
+      </c>
+      <c r="G166">
+        <v>0.335467466591856</v>
+      </c>
+      <c r="H166">
         <v>0.375</v>
-      </c>
-      <c r="G166">
-        <v>0.006818956699624957</v>
-      </c>
-      <c r="H166">
-        <v>0.3354674665918562</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5217,7 +5859,7 @@
         <v>172</v>
       </c>
       <c r="C167">
-        <v>0.3571428571428572</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="D167">
         <v>0.125</v>
@@ -5226,16 +5868,17 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>0.000340947834981248</v>
       </c>
       <c r="G167">
-        <v>0.0003409478349812479</v>
+        <v>0.5</v>
       </c>
       <c r="H167">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>